--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8631,6 +8631,146 @@
       <c r="F356" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>321.8244444444445</v>
+      </c>
+      <c r="C357" t="n">
+        <v>322.8733333333333</v>
+      </c>
+      <c r="D357" t="n">
+        <v>334.0233333333333</v>
+      </c>
+      <c r="E357" t="n">
+        <v>354.8909090909091</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>337.9388888888889</v>
+      </c>
+      <c r="C358" t="n">
+        <v>337.6566666666667</v>
+      </c>
+      <c r="D358" t="n">
+        <v>335.3666666666667</v>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>337.4377777777778</v>
+      </c>
+      <c r="C359" t="n">
+        <v>338.2333333333333</v>
+      </c>
+      <c r="D359" t="n">
+        <v>332.8233333333333</v>
+      </c>
+      <c r="E359" t="n">
+        <v>350.92</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>332.5688888888889</v>
+      </c>
+      <c r="C360" t="n">
+        <v>326.6966666666667</v>
+      </c>
+      <c r="D360" t="n">
+        <v>335.1766666666667</v>
+      </c>
+      <c r="E360" t="n">
+        <v>344.0963636363636</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>326.2022222222222</v>
+      </c>
+      <c r="C361" t="n">
+        <v>325.2466666666667</v>
+      </c>
+      <c r="D361" t="n">
+        <v>323.6066666666667</v>
+      </c>
+      <c r="E361" t="n">
+        <v>339.8718181818182</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>328.0566666666667</v>
+      </c>
+      <c r="C362" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="D362" t="n">
+        <v>331.99</v>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8645,7 +8785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12403,6 +12543,66 @@
       </c>
       <c r="B375" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -12571,28 +12771,28 @@
         <v>0.0502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01908376304431019</v>
+        <v>-0.01961203019763147</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>7.555832201611157e-05</v>
+        <v>8.269671648009069e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>12.0272993167731</v>
+        <v>11.90272224227172</v>
       </c>
       <c r="N2" t="n">
-        <v>242.8541043646908</v>
+        <v>238.9849647403875</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58377696082342</v>
+        <v>15.45913855104441</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3007669885217</v>
+        <v>331.3062243187887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12648,28 +12848,28 @@
         <v>0.0678</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1324978571485941</v>
+        <v>-0.1039378178943828</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K3" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00443085814879407</v>
+        <v>0.002806140004566915</v>
       </c>
       <c r="M3" t="n">
-        <v>10.77714441492896</v>
+        <v>10.70901009070231</v>
       </c>
       <c r="N3" t="n">
-        <v>198.0688641400644</v>
+        <v>196.5732031556502</v>
       </c>
       <c r="O3" t="n">
-        <v>14.0736940474086</v>
+        <v>14.02045659583347</v>
       </c>
       <c r="P3" t="n">
-        <v>327.92403238032</v>
+        <v>327.6293318586154</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12725,28 +12925,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1807813537968014</v>
+        <v>-0.159350370185485</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01068894099797602</v>
+        <v>0.008592139985094782</v>
       </c>
       <c r="M4" t="n">
-        <v>9.471969719934366</v>
+        <v>9.419486425716622</v>
       </c>
       <c r="N4" t="n">
-        <v>153.1604732131101</v>
+        <v>151.2836299034456</v>
       </c>
       <c r="O4" t="n">
-        <v>12.37580192202146</v>
+        <v>12.29974105025978</v>
       </c>
       <c r="P4" t="n">
-        <v>330.7818599562333</v>
+        <v>330.5630636487564</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12802,28 +13002,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03774662037913228</v>
+        <v>-0.0596164601639813</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001741747113301884</v>
+        <v>0.0004461863867614158</v>
       </c>
       <c r="M5" t="n">
-        <v>16.25613037008367</v>
+        <v>16.12622268973666</v>
       </c>
       <c r="N5" t="n">
-        <v>403.9494391823062</v>
+        <v>399.5934600829669</v>
       </c>
       <c r="O5" t="n">
-        <v>20.09849345553806</v>
+        <v>19.98983391834377</v>
       </c>
       <c r="P5" t="n">
-        <v>356.0783620428547</v>
+        <v>356.304259871231</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12860,7 +13060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23552,6 +23752,190 @@
         </is>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-36.76403560689907,175.7504992863211</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-36.76472629023219,175.75018285369552</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-36.76548468397803,175.75005317311508</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-36.76622743694312,175.75027983001812</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.76408476835486,175.75066904397755</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.764765312143695,175.75034110600762</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.76548609455836,175.75006811100334</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.76408323958416,175.7506637650182</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.7647668343018,175.75034727909969</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.76548342390466,175.75003982909615</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.766227969732775,175.7502353748562</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.764068385750576,175.75061247367614</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.76473638227843,175.75022378161862</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.76548589504711,175.75006599820026</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.76622888524321,175.75015898280895</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.76404896251498,175.75054540401223</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.76473255486941,175.7502082596937</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.765473745790594,175.74993733962899</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.76622945201547,175.75011168812975</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-36.76405462000248,175.750564939658</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-36.7647805777026,175.7504030153516</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-36.76548254885282,175.75003056241655</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -12616,7 +12616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12707,35 +12707,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12794,27 +12799,28 @@
       <c r="P2" t="n">
         <v>331.3062243187887</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.74710906849685 -36.76305374193913, 175.7568081082611 -36.765862419398665)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7471090684969</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.76305374193913</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7568081082611</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76586241939867</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.751958588379</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.7644580806689</v>
       </c>
     </row>
@@ -12871,27 +12877,28 @@
       <c r="P3" t="n">
         <v>327.6293318586154</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.74672660310983 -36.76387398331024, 175.7565828081407 -36.76630419048639)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7467266031098</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.76387398331024</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7565828081407</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76630419048639</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7516547056253</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.76508908689831</v>
       </c>
     </row>
@@ -12948,27 +12955,28 @@
       <c r="P4" t="n">
         <v>330.5630636487564</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.74633884160724 -36.76513388049043, 175.75657843900362 -36.76610067804534)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7463388416072</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.76513388049043</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7565784390036</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.76610067804534</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7514586403054</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.76561727926789</v>
       </c>
     </row>
@@ -13025,27 +13033,28 @@
       <c r="P5" t="n">
         <v>356.304259871231</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.74630674505656 -36.76627498820542, 175.7566157566362 -36.76615133155609)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7463067450566</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.76627498820542</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7566157566362</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.76615133155609</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7514612508464</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.76621315988075</v>
       </c>
     </row>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8767,10 +8767,130 @@
       <c r="D362" t="n">
         <v>331.99</v>
       </c>
-      <c r="E362" t="inlineStr"/>
+      <c r="E362" t="n">
+        <v>384.5136363636364</v>
+      </c>
       <c r="F362" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>330.1777777777777</v>
+      </c>
+      <c r="C363" t="n">
+        <v>341.8433333333333</v>
+      </c>
+      <c r="D363" t="n">
+        <v>331.4333333333333</v>
+      </c>
+      <c r="E363" t="n">
+        <v>385.4927272727273</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>342.5011111111111</v>
+      </c>
+      <c r="C364" t="n">
+        <v>331.0133333333333</v>
+      </c>
+      <c r="D364" t="n">
+        <v>331.1633333333333</v>
+      </c>
+      <c r="E364" t="n">
+        <v>351.8772727272727</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>319.3266666666667</v>
+      </c>
+      <c r="C365" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="D365" t="n">
+        <v>332.13</v>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>335.7688888888889</v>
+      </c>
+      <c r="C366" t="n">
+        <v>327.0066666666667</v>
+      </c>
+      <c r="D366" t="n">
+        <v>331.3766666666667</v>
+      </c>
+      <c r="E366" t="n">
+        <v>345.8563636363637</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>325.71</v>
+      </c>
+      <c r="C367" t="n">
+        <v>317.66</v>
+      </c>
+      <c r="D367" t="n">
+        <v>318.35</v>
+      </c>
+      <c r="E367" t="n">
+        <v>332.1127272727272</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12603,6 +12723,56 @@
       </c>
       <c r="B381" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -12776,28 +12946,28 @@
         <v>0.0502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01961203019763147</v>
+        <v>-0.01995042306514499</v>
       </c>
       <c r="J2" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L2" t="n">
-        <v>8.269671648009069e-05</v>
+        <v>8.791589681222955e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>11.90272224227172</v>
+        <v>11.8246031505071</v>
       </c>
       <c r="N2" t="n">
-        <v>238.9849647403875</v>
+        <v>236.3160518092048</v>
       </c>
       <c r="O2" t="n">
-        <v>15.45913855104441</v>
+        <v>15.3725746642911</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3062243187887</v>
+        <v>331.3098679452679</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12854,28 +13024,28 @@
         <v>0.0678</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1039378178943828</v>
+        <v>-0.08962432856561452</v>
       </c>
       <c r="J3" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002806140004566915</v>
+        <v>0.002139661101757895</v>
       </c>
       <c r="M3" t="n">
-        <v>10.70901009070231</v>
+        <v>10.65313468276681</v>
       </c>
       <c r="N3" t="n">
-        <v>196.5732031556502</v>
+        <v>194.8550044900146</v>
       </c>
       <c r="O3" t="n">
-        <v>14.02045659583347</v>
+        <v>13.95904740625286</v>
       </c>
       <c r="P3" t="n">
-        <v>327.6293318586154</v>
+        <v>327.4808606850418</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12932,28 +13102,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.159350370185485</v>
+        <v>-0.1523458219587303</v>
       </c>
       <c r="J4" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008592139985094782</v>
+        <v>0.008076021867185035</v>
       </c>
       <c r="M4" t="n">
-        <v>9.419486425716622</v>
+        <v>9.36154625798974</v>
       </c>
       <c r="N4" t="n">
-        <v>151.2836299034456</v>
+        <v>149.5245442532668</v>
       </c>
       <c r="O4" t="n">
-        <v>12.29974105025978</v>
+        <v>12.22802290860083</v>
       </c>
       <c r="P4" t="n">
-        <v>330.5630636487564</v>
+        <v>330.4910160799748</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13010,28 +13180,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0596164601639813</v>
+        <v>-0.04229426722468343</v>
       </c>
       <c r="J5" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004461863867614158</v>
+        <v>0.0002281709948286359</v>
       </c>
       <c r="M5" t="n">
-        <v>16.12622268973666</v>
+        <v>16.18411595943173</v>
       </c>
       <c r="N5" t="n">
-        <v>399.5934600829669</v>
+        <v>401.0400753966682</v>
       </c>
       <c r="O5" t="n">
-        <v>19.98983391834377</v>
+        <v>20.02598500440536</v>
       </c>
       <c r="P5" t="n">
-        <v>356.304259871231</v>
+        <v>356.1265134315204</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13069,7 +13239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23938,10 +24108,170 @@
           <t>-36.76548254885282,175.75003056241655</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-36.766223461842415,175.7506114626231</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.76406109102516,175.7505872845072</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.76477636317988,175.75038592337484</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.765481964317786,175.75002437227468</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.76622333044154,175.75062242374827</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.76409868659756,175.75071710475626</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.76474777650668,175.750269990576</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.76548168080067,175.75002136987058</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.76622784129393,175.75024609172576</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-36.76402798673222,175.75047297349286</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.76474932506445,175.75027627071321</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.765482695861586,175.75003211921873</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-36.7640781481997,175.75064618409513</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-36.76473720055181,175.7502271000993</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-36.7654819048142,175.7500237421405</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.76622864911306,175.75017868638037</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:25+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.76404746085654,175.7505402186975</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.76471252912737,175.75012704615114</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.765468225900264,175.74987888542833</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.76623049293942,175.75002482346216</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8889,6 +8889,54 @@
         <v>332.1127272727272</v>
       </c>
       <c r="F367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>335.5744444444445</v>
+      </c>
+      <c r="C368" t="n">
+        <v>326.5133333333333</v>
+      </c>
+      <c r="D368" t="n">
+        <v>335.8333333333333</v>
+      </c>
+      <c r="E368" t="n">
+        <v>347.6545454545454</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>321.1655555555556</v>
+      </c>
+      <c r="C369" t="n">
+        <v>339.5566666666667</v>
+      </c>
+      <c r="D369" t="n">
+        <v>332.9866666666667</v>
+      </c>
+      <c r="E369" t="n">
+        <v>385.5418181818182</v>
+      </c>
+      <c r="F369" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8905,7 +8953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12773,6 +12821,26 @@
       </c>
       <c r="B386" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +13014,28 @@
         <v>0.0502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01995042306514499</v>
+        <v>-0.02283755950852052</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L2" t="n">
-        <v>8.791589681222955e-05</v>
+        <v>0.0001164604404175762</v>
       </c>
       <c r="M2" t="n">
-        <v>11.8246031505071</v>
+        <v>11.79749962614276</v>
       </c>
       <c r="N2" t="n">
-        <v>236.3160518092048</v>
+        <v>235.2333290607587</v>
       </c>
       <c r="O2" t="n">
-        <v>15.3725746642911</v>
+        <v>15.33731818346215</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3098679452679</v>
+        <v>331.34017550888</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13024,28 +13092,28 @@
         <v>0.0678</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08962432856561452</v>
+        <v>-0.08027546192637873</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002139661101757895</v>
+        <v>0.001732994220791539</v>
       </c>
       <c r="M3" t="n">
-        <v>10.65313468276681</v>
+        <v>10.62894133459164</v>
       </c>
       <c r="N3" t="n">
-        <v>194.8550044900146</v>
+        <v>194.3024333437341</v>
       </c>
       <c r="O3" t="n">
-        <v>13.95904740625286</v>
+        <v>13.93924077357638</v>
       </c>
       <c r="P3" t="n">
-        <v>327.4808606850418</v>
+        <v>327.3825823456488</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13102,28 +13170,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1523458219587303</v>
+        <v>-0.1431799741972609</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008076021867185035</v>
+        <v>0.007209592822486899</v>
       </c>
       <c r="M4" t="n">
-        <v>9.36154625798974</v>
+        <v>9.349913652884235</v>
       </c>
       <c r="N4" t="n">
-        <v>149.5245442532668</v>
+        <v>149.0093183066273</v>
       </c>
       <c r="O4" t="n">
-        <v>12.22802290860083</v>
+        <v>12.20693730247793</v>
       </c>
       <c r="P4" t="n">
-        <v>330.4910160799748</v>
+        <v>330.3955429606677</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13180,28 +13248,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04229426722468343</v>
+        <v>-0.02640983363576559</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002281709948286359</v>
+        <v>8.953221250096455e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>16.18411595943173</v>
+        <v>16.21254225930496</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0400753966682</v>
+        <v>401.6420356707137</v>
       </c>
       <c r="O5" t="n">
-        <v>20.02598500440536</v>
+        <v>20.0410088486262</v>
       </c>
       <c r="P5" t="n">
-        <v>356.1265134315204</v>
+        <v>355.959493008992</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13239,7 +13307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20507,7 +20575,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-36.76411965544627,175.75078951199046</t>
+          <t>-36.764119655446265,175.75078951199046</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -24275,6 +24343,70 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-36.76407755499562,175.75064413571874</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.764735898353265,175.7502218190763</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.76548658458582,175.75007330034427</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.766228407856865,175.75019881740496</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.76403359677558,175.75049234525872</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.76477032734541,175.75036144509795</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.765483595414736,175.7500416453654</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.76622332385317,175.75062297333116</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8937,6 +8937,30 @@
         <v>385.5418181818182</v>
       </c>
       <c r="F369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>328.8055555555555</v>
+      </c>
+      <c r="C370" t="n">
+        <v>336.6566666666667</v>
+      </c>
+      <c r="D370" t="n">
+        <v>331.4766666666667</v>
+      </c>
+      <c r="E370" t="n">
+        <v>389.8590909090909</v>
+      </c>
+      <c r="F370" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8953,7 +8977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12841,6 +12865,16 @@
       </c>
       <c r="B388" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -13014,28 +13048,28 @@
         <v>0.0502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02283755950852052</v>
+        <v>-0.0239864120508992</v>
       </c>
       <c r="J2" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001164604404175762</v>
+        <v>0.0001292556117721277</v>
       </c>
       <c r="M2" t="n">
-        <v>11.79749962614276</v>
+        <v>11.76802779509305</v>
       </c>
       <c r="N2" t="n">
-        <v>235.2333290607587</v>
+        <v>234.5339486159143</v>
       </c>
       <c r="O2" t="n">
-        <v>15.33731818346215</v>
+        <v>15.31450125260089</v>
       </c>
       <c r="P2" t="n">
-        <v>331.34017550888</v>
+        <v>331.3522480694636</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13092,28 +13126,28 @@
         <v>0.0678</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08027546192637873</v>
+        <v>-0.07356521089811431</v>
       </c>
       <c r="J3" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001732994220791539</v>
+        <v>0.00146181349533514</v>
       </c>
       <c r="M3" t="n">
-        <v>10.62894133459164</v>
+        <v>10.6260186373004</v>
       </c>
       <c r="N3" t="n">
-        <v>194.3024333437341</v>
+        <v>194.1020713421446</v>
       </c>
       <c r="O3" t="n">
-        <v>13.93924077357638</v>
+        <v>13.93205194298904</v>
       </c>
       <c r="P3" t="n">
-        <v>327.3825823456488</v>
+        <v>327.3118910094101</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13170,28 +13204,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1431799741972609</v>
+        <v>-0.1403951193588791</v>
       </c>
       <c r="J4" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007209592822486899</v>
+        <v>0.006972608182137963</v>
       </c>
       <c r="M4" t="n">
-        <v>9.349913652884235</v>
+        <v>9.335527281413011</v>
       </c>
       <c r="N4" t="n">
-        <v>149.0093183066273</v>
+        <v>148.6358515264152</v>
       </c>
       <c r="O4" t="n">
-        <v>12.20693730247793</v>
+        <v>12.19163038836132</v>
       </c>
       <c r="P4" t="n">
-        <v>330.3955429606677</v>
+        <v>330.3664582756479</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13248,28 +13282,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02640983363576559</v>
+        <v>-0.002828025406606454</v>
       </c>
       <c r="J5" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>8.953221250096455e-05</v>
+        <v>1.023885757178711e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>16.21254225930496</v>
+        <v>16.28947571612381</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6420356707137</v>
+        <v>404.2835355674089</v>
       </c>
       <c r="O5" t="n">
-        <v>20.0410088486262</v>
+        <v>20.10680321601146</v>
       </c>
       <c r="P5" t="n">
-        <v>355.959493008992</v>
+        <v>355.7111278861114</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13307,7 +13341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F369"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24407,6 +24441,38 @@
         </is>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-36.76405690469093,175.75057282882906</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-36.76476267256241,175.7503304012242</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-36.76548200982052,175.75002485414203</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.766222744432554,175.7506713060907</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8963,6 +8963,74 @@
       <c r="F370" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>326.8877777777778</v>
+      </c>
+      <c r="C371" t="n">
+        <v>329.5833333333333</v>
+      </c>
+      <c r="D371" t="n">
+        <v>334.9433333333333</v>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>328.6088888888889</v>
+      </c>
+      <c r="C372" t="n">
+        <v>321.2666666666667</v>
+      </c>
+      <c r="D372" t="n">
+        <v>315.6666666666667</v>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>340.8033333333333</v>
+      </c>
+      <c r="C373" t="n">
+        <v>342.72</v>
+      </c>
+      <c r="D373" t="n">
+        <v>337.54</v>
+      </c>
+      <c r="E373" t="n">
+        <v>391.5863636363636</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8977,7 +9045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12875,6 +12943,36 @@
       </c>
       <c r="B389" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -13048,28 +13146,28 @@
         <v>0.0502</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0239864120508992</v>
+        <v>-0.02156889370697849</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001292556117721277</v>
+        <v>0.000106295973617998</v>
       </c>
       <c r="M2" t="n">
-        <v>11.76802779509305</v>
+        <v>11.70983678573845</v>
       </c>
       <c r="N2" t="n">
-        <v>234.5339486159143</v>
+        <v>232.7884880860595</v>
       </c>
       <c r="O2" t="n">
-        <v>15.31450125260089</v>
+        <v>15.25740764632248</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3522480694636</v>
+        <v>331.326600449647</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13126,28 +13224,28 @@
         <v>0.0678</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07356521089811431</v>
+        <v>-0.06342516105001961</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00146181349533514</v>
+        <v>0.001101493474968684</v>
       </c>
       <c r="M3" t="n">
-        <v>10.6260186373004</v>
+        <v>10.5994855077797</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1020713421446</v>
+        <v>193.3551092314755</v>
       </c>
       <c r="O3" t="n">
-        <v>13.93205194298904</v>
+        <v>13.90521877682892</v>
       </c>
       <c r="P3" t="n">
-        <v>327.3118910094101</v>
+        <v>327.2043331242064</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13204,28 +13302,28 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1403951193588791</v>
+        <v>-0.1357955995564415</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006972608182137963</v>
+        <v>0.006605499797525005</v>
       </c>
       <c r="M4" t="n">
-        <v>9.335527281413011</v>
+        <v>9.340190687335863</v>
       </c>
       <c r="N4" t="n">
-        <v>148.6358515264152</v>
+        <v>148.2270873513196</v>
       </c>
       <c r="O4" t="n">
-        <v>12.19163038836132</v>
+        <v>12.1748547158198</v>
       </c>
       <c r="P4" t="n">
-        <v>330.3664582756479</v>
+        <v>330.31811298248</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13282,28 +13380,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002828025406606454</v>
+        <v>0.02178036550476196</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>1.023885757178711e-06</v>
+        <v>6.052520094623759e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>16.28947571612381</v>
+        <v>16.37208338314409</v>
       </c>
       <c r="N5" t="n">
-        <v>404.2835355674089</v>
+        <v>407.2274786737287</v>
       </c>
       <c r="O5" t="n">
-        <v>20.10680321601146</v>
+        <v>20.17987806389644</v>
       </c>
       <c r="P5" t="n">
-        <v>355.7111278861114</v>
+        <v>355.4501871014048</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13341,7 +13439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24473,6 +24571,94 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-36.76405105398917,175.75055262599722</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-36.76474400189568,175.75025468274237</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-36.76548565003325,175.75006340352982</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-36.764056304706045,175.75057075704376</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-36.76472204928078,175.75016565469332</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-36.765465408189804,175.74984904672988</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-36.764093507088276,175.75069921949623</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-36.764778677208334,175.75039530790465</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-36.7654883766843,175.75009227850583</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-36.766222512610014,175.750690643265</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0166/nzd0166.xlsx
+++ b/data/nzd0166/nzd0166.xlsx
@@ -13137,13 +13137,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039</v>
+        <v>0.0337</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0502</v>
+        <v>0.0454</v>
       </c>
       <c r="I2" t="n">
         <v>-0.02154403117821366</v>
@@ -13215,13 +13215,13 @@
         <v>0.3351342007486476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0549</v>
+        <v>0.0454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0678</v>
+        <v>0.0571</v>
       </c>
       <c r="I3" t="n">
         <v>-0.0633997669829035</v>
@@ -13296,10 +13296,10 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.052</v>
+        <v>0.0534</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.0694</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1357744639936869</v>
@@ -13371,13 +13371,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0503</v>
+        <v>0.0234</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0265</v>
       </c>
       <c r="I5" t="n">
         <v>0.02177227788124679</v>
